--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cort-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cort-Sstr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Sstr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cort</t>
-  </si>
-  <si>
-    <t>Sstr2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,40 +543,40 @@
         <v>0.687311</v>
       </c>
       <c r="I2">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4219966666666666</v>
+        <v>0.065897</v>
       </c>
       <c r="N2">
-        <v>1.26599</v>
+        <v>0.197691</v>
       </c>
       <c r="O2">
-        <v>0.4621281864647206</v>
+        <v>0.06323422774762348</v>
       </c>
       <c r="P2">
-        <v>0.5201750201435876</v>
+        <v>0.0754133906251967</v>
       </c>
       <c r="Q2">
-        <v>0.09668098365444444</v>
+        <v>0.01509724432233333</v>
       </c>
       <c r="R2">
-        <v>0.87012885289</v>
+        <v>0.135875198901</v>
       </c>
       <c r="S2">
-        <v>0.2461981602268418</v>
+        <v>0.06323422774762348</v>
       </c>
       <c r="T2">
-        <v>0.3135195451132629</v>
+        <v>0.0754133906251967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,40 +605,40 @@
         <v>0.687311</v>
       </c>
       <c r="I3">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.05724133333333333</v>
+        <v>0.4219966666666666</v>
       </c>
       <c r="N3">
-        <v>0.171724</v>
+        <v>1.26599</v>
       </c>
       <c r="O3">
-        <v>0.06268493486715353</v>
+        <v>0.4049445851668202</v>
       </c>
       <c r="P3">
-        <v>0.07055864197911313</v>
+        <v>0.4829385171686762</v>
       </c>
       <c r="Q3">
-        <v>0.01311419935155556</v>
+        <v>0.09668098365444444</v>
       </c>
       <c r="R3">
-        <v>0.118027794164</v>
+        <v>0.87012885289</v>
       </c>
       <c r="S3">
-        <v>0.03339531344386146</v>
+        <v>0.4049445851668202</v>
       </c>
       <c r="T3">
-        <v>0.0425270581639902</v>
+        <v>0.4829385171686762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,40 +667,40 @@
         <v>0.687311</v>
       </c>
       <c r="I4">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.305701</v>
+        <v>0.049318</v>
       </c>
       <c r="N4">
-        <v>0.611402</v>
+        <v>0.147954</v>
       </c>
       <c r="O4">
-        <v>0.3347729019908173</v>
+        <v>0.04732515355869456</v>
       </c>
       <c r="P4">
-        <v>0.251215292115917</v>
+        <v>0.0564401656957593</v>
       </c>
       <c r="Q4">
-        <v>0.07003722000366668</v>
+        <v>0.01129893463266667</v>
       </c>
       <c r="R4">
-        <v>0.420223320022</v>
+        <v>0.101690411694</v>
       </c>
       <c r="S4">
-        <v>0.1783498063480101</v>
+        <v>0.04732515355869456</v>
       </c>
       <c r="T4">
-        <v>0.1514123152010199</v>
+        <v>0.0564401656957593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,536 +729,40 @@
         <v>0.687311</v>
       </c>
       <c r="I5">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1282203333333333</v>
+        <v>0.504898</v>
       </c>
       <c r="N5">
-        <v>0.384661</v>
+        <v>1.009796</v>
       </c>
       <c r="O5">
-        <v>0.1404139766773086</v>
+        <v>0.4844960335268617</v>
       </c>
       <c r="P5">
-        <v>0.1580510457613824</v>
+        <v>0.3852079265103678</v>
       </c>
       <c r="Q5">
-        <v>0.02937574850788889</v>
+        <v>0.1156739830926667</v>
       </c>
       <c r="R5">
-        <v>0.264381736571</v>
+        <v>0.6940438985559999</v>
       </c>
       <c r="S5">
-        <v>0.07480535431639837</v>
+        <v>0.4844960335268617</v>
       </c>
       <c r="T5">
-        <v>0.09526042207506601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.153494</v>
-      </c>
-      <c r="I6">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J6">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.4219966666666666</v>
-      </c>
-      <c r="N6">
-        <v>1.26599</v>
-      </c>
-      <c r="O6">
-        <v>0.4621281864647206</v>
-      </c>
-      <c r="P6">
-        <v>0.5201750201435876</v>
-      </c>
-      <c r="Q6">
-        <v>0.02159131878444445</v>
-      </c>
-      <c r="R6">
-        <v>0.19432186906</v>
-      </c>
-      <c r="S6">
-        <v>0.0549823011793189</v>
-      </c>
-      <c r="T6">
-        <v>0.07001687599589587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.153494</v>
-      </c>
-      <c r="I7">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J7">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.05724133333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.171724</v>
-      </c>
-      <c r="O7">
-        <v>0.06268493486715353</v>
-      </c>
-      <c r="P7">
-        <v>0.07055864197911313</v>
-      </c>
-      <c r="Q7">
-        <v>0.002928733739555556</v>
-      </c>
-      <c r="R7">
-        <v>0.026358603656</v>
-      </c>
-      <c r="S7">
-        <v>0.007458021538651457</v>
-      </c>
-      <c r="T7">
-        <v>0.009497372027835307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.153494</v>
-      </c>
-      <c r="I8">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J8">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.305701</v>
-      </c>
-      <c r="N8">
-        <v>0.611402</v>
-      </c>
-      <c r="O8">
-        <v>0.3347729019908173</v>
-      </c>
-      <c r="P8">
-        <v>0.251215292115917</v>
-      </c>
-      <c r="Q8">
-        <v>0.01564108976466667</v>
-      </c>
-      <c r="R8">
-        <v>0.09384653858800002</v>
-      </c>
-      <c r="S8">
-        <v>0.03983004080479064</v>
-      </c>
-      <c r="T8">
-        <v>0.03381421497613941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.153494</v>
-      </c>
-      <c r="I9">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J9">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1282203333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.384661</v>
-      </c>
-      <c r="O9">
-        <v>0.1404139766773086</v>
-      </c>
-      <c r="P9">
-        <v>0.1580510457613824</v>
-      </c>
-      <c r="Q9">
-        <v>0.006560350614888889</v>
-      </c>
-      <c r="R9">
-        <v>0.059043155534</v>
-      </c>
-      <c r="S9">
-        <v>0.01670593523956586</v>
-      </c>
-      <c r="T9">
-        <v>0.02127407130977125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.1497725</v>
-      </c>
-      <c r="H10">
-        <v>0.299545</v>
-      </c>
-      <c r="I10">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J10">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.4219966666666666</v>
-      </c>
-      <c r="N10">
-        <v>1.26599</v>
-      </c>
-      <c r="O10">
-        <v>0.4621281864647206</v>
-      </c>
-      <c r="P10">
-        <v>0.5201750201435876</v>
-      </c>
-      <c r="Q10">
-        <v>0.06320349575833333</v>
-      </c>
-      <c r="R10">
-        <v>0.37922097455</v>
-      </c>
-      <c r="S10">
-        <v>0.1609477250585601</v>
-      </c>
-      <c r="T10">
-        <v>0.1366385990344288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.1497725</v>
-      </c>
-      <c r="H11">
-        <v>0.299545</v>
-      </c>
-      <c r="I11">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J11">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.05724133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.171724</v>
-      </c>
-      <c r="O11">
-        <v>0.06268493486715353</v>
-      </c>
-      <c r="P11">
-        <v>0.07055864197911313</v>
-      </c>
-      <c r="Q11">
-        <v>0.008573177596666667</v>
-      </c>
-      <c r="R11">
-        <v>0.05143906558</v>
-      </c>
-      <c r="S11">
-        <v>0.02183159988464061</v>
-      </c>
-      <c r="T11">
-        <v>0.01853421178728762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.1497725</v>
-      </c>
-      <c r="H12">
-        <v>0.299545</v>
-      </c>
-      <c r="I12">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J12">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.305701</v>
-      </c>
-      <c r="N12">
-        <v>0.611402</v>
-      </c>
-      <c r="O12">
-        <v>0.3347729019908173</v>
-      </c>
-      <c r="P12">
-        <v>0.251215292115917</v>
-      </c>
-      <c r="Q12">
-        <v>0.0457856030225</v>
-      </c>
-      <c r="R12">
-        <v>0.18314241209</v>
-      </c>
-      <c r="S12">
-        <v>0.1165930548380166</v>
-      </c>
-      <c r="T12">
-        <v>0.0659887619387577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.1497725</v>
-      </c>
-      <c r="H13">
-        <v>0.299545</v>
-      </c>
-      <c r="I13">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J13">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1282203333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.384661</v>
-      </c>
-      <c r="O13">
-        <v>0.1404139766773086</v>
-      </c>
-      <c r="P13">
-        <v>0.1580510457613824</v>
-      </c>
-      <c r="Q13">
-        <v>0.01920387987416667</v>
-      </c>
-      <c r="R13">
-        <v>0.115223279245</v>
-      </c>
-      <c r="S13">
-        <v>0.04890268712134437</v>
-      </c>
-      <c r="T13">
-        <v>0.04151655237654518</v>
+        <v>0.3852079265103678</v>
       </c>
     </row>
   </sheetData>
